--- a/biology/Botanique/Wahlenbergia/Wahlenbergia.xlsx
+++ b/biology/Botanique/Wahlenbergia/Wahlenbergia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wahlenbergia est un genre de plantes à fleurs de la famille des Campanulaceae regroupant entre 150 et 270 espèces poussant sur tous les continents en dehors de l'Amérique du Nord et essentiellement en Afrique et en Australasie.
 </t>
@@ -511,7 +523,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Afrique
 Wahlenbergia androsacea (Afrique du Sud)
@@ -583,9 +597,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (19 nov. 2010)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (19 nov. 2010) :
 Wahlenbergia angustifolia
 Wahlenbergia berteroi
 Wahlenbergia capensis
@@ -594,7 +610,7 @@
 Wahlenbergia linifolia
 Wahlenbergia lobelioides
 Wahlenbergia saxicola
-Selon ITIS      (30 avr. 2016)[3] :
+Selon ITIS      (30 avr. 2016) :
 Wahlenbergia gracilis (G. Forst.) A. DC.
 Wahlenbergia linarioides (Lam.) A. DC.
 Wahlenbergia marginata (Thunb.) A. DC.</t>
